--- a/r6_operator_defenders.xlsx
+++ b/r6_operator_defenders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruffl\Dropbox\내 PC (DESKTOP-ENH4CC5)\Desktop\Rufflain\Github\DobiEmon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0F842C-6EC7-4B5D-9405-2B2079B46A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2821881-E4DF-451E-B37F-F9305CD1AB84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7785" yWindow="1020" windowWidth="16440" windowHeight="19305" xr2:uid="{42FD5871-DAC5-4E93-BA8E-B2E79BC946FD}"/>
+    <workbookView xWindow="11790" yWindow="1365" windowWidth="18825" windowHeight="19305" xr2:uid="{42FD5871-DAC5-4E93-BA8E-B2E79BC946FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Defenders" sheetId="1" r:id="rId1"/>
@@ -144,11 +144,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>JÄGER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,9 +221,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,7 +540,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -579,11 +576,11 @@
         <v>0.11507980801428731</v>
       </c>
       <c r="I1" s="3">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="J1" s="4">
         <f>I1</f>
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -614,11 +611,11 @@
         <v>7.3334077464002681E-2</v>
       </c>
       <c r="I2" s="3">
-        <v>6.5000000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" ref="J2:J28" si="2">I2</f>
-        <v>6.5000000000000002E-2</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -649,14 +646,14 @@
         <v>2.7346802098448489E-2</v>
       </c>
       <c r="I3" s="3">
-        <v>6.5000000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3">
         <f>COUNT(B1:B28)</f>
@@ -691,74 +688,74 @@
         <v>1.6073222457863599E-2</v>
       </c>
       <c r="I4" s="3">
-        <v>6.5000000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>333</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>854</v>
+        <v>84</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>9.5323138743163296E-2</v>
+        <v>9.376046433753768E-3</v>
       </c>
       <c r="I5" s="3">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>156</v>
+        <v>333</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>417</v>
       </c>
       <c r="E6">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>286</v>
+        <v>854</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>3.192320571492354E-2</v>
+        <v>9.5323138743163296E-2</v>
       </c>
       <c r="I6" s="3">
         <v>0.05</v>
@@ -770,30 +767,30 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>1.596160285746177E-2</v>
+        <v>3.192320571492354E-2</v>
       </c>
       <c r="I7" s="3">
         <v>0.05</v>
@@ -805,30 +802,30 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>9.376046433753768E-3</v>
+        <v>1.596160285746177E-2</v>
       </c>
       <c r="I8" s="3">
         <v>0.05</v>
@@ -866,11 +863,11 @@
         <v>4.2192208951891949E-2</v>
       </c>
       <c r="I9" s="3">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -901,431 +898,431 @@
         <v>4.9670722178814602E-2</v>
       </c>
       <c r="I10" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="C11">
-        <v>303</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E11">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F11">
-        <v>245</v>
+        <v>26</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>342</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>7.8133720281281391E-2</v>
+        <v>3.8173903337426054E-2</v>
       </c>
       <c r="I11" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D12">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E12">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F12">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v>3.8173903337426054E-2</v>
+        <v>3.7727424935818731E-2</v>
       </c>
       <c r="I12" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="C13">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>3.7839044536220563E-2</v>
+        <v>2.8797856903672286E-2</v>
       </c>
       <c r="I13" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="C14">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="D14">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="E14">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F14">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>423</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>3.7727424935818731E-2</v>
+        <v>4.7215090969974324E-2</v>
       </c>
       <c r="I14" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C15">
-        <v>121</v>
+        <v>303</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F15">
-        <v>62</v>
+        <v>245</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>700</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>3.0025672508092422E-2</v>
+        <v>7.8133720281281391E-2</v>
       </c>
       <c r="I15" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C16">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="D16">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v>3.2369684116530864E-2</v>
+        <v>3.7839044536220563E-2</v>
       </c>
       <c r="I16" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C17">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="0"/>
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>2.9914052907690589E-2</v>
+        <v>3.0025672508092422E-2</v>
       </c>
       <c r="I17" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E18">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="0"/>
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="1"/>
-        <v>2.8797856903672286E-2</v>
+        <v>3.2369684116530864E-2</v>
       </c>
       <c r="I18" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E19">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="1"/>
-        <v>2.6342225694832012E-2</v>
+        <v>2.9914052907690589E-2</v>
       </c>
       <c r="I19" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>117</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
         <v>2</v>
       </c>
-      <c r="B20">
-        <v>150</v>
-      </c>
-      <c r="C20">
-        <v>23</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
       <c r="E20">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="F20">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="1"/>
-        <v>2.611898649402835E-2</v>
+        <v>2.6342225694832012E-2</v>
       </c>
       <c r="I20" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="C21">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="0"/>
-        <v>424</v>
+        <v>234</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="1"/>
-        <v>4.7326710570376157E-2</v>
+        <v>2.611898649402835E-2</v>
       </c>
       <c r="I21" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>265</v>
       </c>
       <c r="C22">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="D22">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F22">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="0"/>
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="1"/>
-        <v>4.7215090969974324E-2</v>
+        <v>4.7326710570376157E-2</v>
       </c>
       <c r="I22" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1356,11 +1353,11 @@
         <v>1.3171112847416006E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1391,95 +1388,95 @@
         <v>1.1831677642594039E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>30</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="1"/>
-        <v>1.1720058042192208E-2</v>
+        <v>1.1385199240986717E-2</v>
       </c>
       <c r="I25" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="1"/>
-        <v>1.1385199240986717E-2</v>
+        <v>1.0380622837370242E-2</v>
       </c>
       <c r="I26" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C27">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -1489,18 +1486,18 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="1"/>
-        <v>1.0380622837370242E-2</v>
+        <v>1.1720058042192208E-2</v>
       </c>
       <c r="I27" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1531,11 +1528,11 @@
         <v>5.2461212188860363E-3</v>
       </c>
       <c r="I28" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1547,14 +1544,10 @@
         <f>SUM(I1:I28)</f>
         <v>1.0000000000000004</v>
       </c>
-      <c r="J29" s="5">
-        <f>SUM(J1:J28)</f>
-        <v>1.0000000000000004</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H28">
-    <sortCondition descending="1" ref="H1:H28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:I28">
+    <sortCondition descending="1" ref="I1:I28"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
